--- a/generated_output/temp/us-core-immunization.xlsx
+++ b/generated_output/temp/us-core-immunization.xlsx
@@ -186,7 +186,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id {[]} {[]}
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -205,7 +205,7 @@
     <t>Immunization.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta {[]} {[]}
+    <t xml:space="preserve">Meta
 </t>
   </si>
   <si>
@@ -221,7 +221,7 @@
     <t>Immunization.implicitRules</t>
   </si>
   <si>
-    <t xml:space="preserve">uri {[]} {[]}
+    <t xml:space="preserve">uri
 </t>
   </si>
   <si>
@@ -240,7 +240,7 @@
     <t>Immunization.language</t>
   </si>
   <si>
-    <t xml:space="preserve">code {[]} {[]}
+    <t xml:space="preserve">code
 </t>
   </si>
   <si>
@@ -272,7 +272,7 @@
 htmlxhtmldisplay</t>
   </si>
   <si>
-    <t xml:space="preserve">Narrative {[]} {[]}
+    <t xml:space="preserve">Narrative
 </t>
   </si>
   <si>
@@ -298,7 +298,7 @@
 anonymous resourcescontained resources</t>
   </si>
   <si>
-    <t xml:space="preserve">Resource {[]} {[]}
+    <t xml:space="preserve">Resource
 </t>
   </si>
   <si>
@@ -324,7 +324,7 @@
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[]} {[]}
+    <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
@@ -359,7 +359,7 @@
     <t>Immunization.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier {[]} {[]}
+    <t xml:space="preserve">Identifier
 </t>
   </si>
   <si>
@@ -414,7 +414,7 @@
     <t>Immunization.statusReason</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept {[]} {[]}
+    <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
@@ -489,7 +489,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient]]}
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient)
 </t>
   </si>
   <si>
@@ -517,7 +517,7 @@
     <t>Immunization.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Encounter]]}
+    <t xml:space="preserve">Reference(Encounter)
 </t>
   </si>
   <si>
@@ -542,8 +542,8 @@
     <t>Immunization.occurrence[x]</t>
   </si>
   <si>
-    <t>dateTime {[]} {[]}
-string {[]} {[]}</t>
+    <t>dateTime
+string</t>
   </si>
   <si>
     <t>Vaccine administration date</t>
@@ -579,7 +579,7 @@
     <t>Immunization.recorded</t>
   </si>
   <si>
-    <t xml:space="preserve">dateTime {[]} {[]}
+    <t xml:space="preserve">dateTime
 </t>
   </si>
   <si>
@@ -598,7 +598,7 @@
     <t>Immunization.primarySource</t>
   </si>
   <si>
-    <t xml:space="preserve">boolean {[]} {[]}
+    <t xml:space="preserve">boolean
 </t>
   </si>
   <si>
@@ -650,7 +650,7 @@
     <t>Immunization.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Location]]}
+    <t xml:space="preserve">Reference(Location)
 </t>
   </si>
   <si>
@@ -675,7 +675,7 @@
     <t>Immunization.manufacturer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Organization]]}
+    <t xml:space="preserve">Reference(Organization)
 </t>
   </si>
   <si>
@@ -697,7 +697,7 @@
     <t>Immunization.lotNumber</t>
   </si>
   <si>
-    <t xml:space="preserve">string {[]} {[]}
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -719,7 +719,7 @@
     <t>Immunization.expirationDate</t>
   </si>
   <si>
-    <t xml:space="preserve">date {[]} {[]}
+    <t xml:space="preserve">date
 </t>
   </si>
   <si>
@@ -786,7 +786,7 @@
     <t>Immunization.doseQuantity</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {[CanonicalType[http://hl7.org/fhir/StructureDefinition/SimpleQuantity]]} {[]}
+    <t xml:space="preserve">Quantity {SimpleQuantity}
 </t>
   </si>
   <si>
@@ -805,7 +805,7 @@
     <t>Immunization.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">BackboneElement {[]} {[]}
+    <t xml:space="preserve">BackboneElement
 </t>
   </si>
   <si>
@@ -893,7 +893,7 @@
     <t>Immunization.performer.actor</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Practitioner], CanonicalType[http://hl7.org/fhir/StructureDefinition/PractitionerRole], CanonicalType[http://hl7.org/fhir/StructureDefinition/Organization]]}
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization)
 </t>
   </si>
   <si>
@@ -918,7 +918,7 @@
     <t>Immunization.note</t>
   </si>
   <si>
-    <t xml:space="preserve">Annotation {[]} {[]}
+    <t xml:space="preserve">Annotation
 </t>
   </si>
   <si>
@@ -961,7 +961,7 @@
     <t>Immunization.reasonReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Condition], CanonicalType[http://hl7.org/fhir/StructureDefinition/Observation], CanonicalType[http://hl7.org/fhir/StructureDefinition/DiagnosticReport]]}
+    <t xml:space="preserve">Reference(Condition|Observation|DiagnosticReport)
 </t>
   </si>
   <si>
@@ -1146,7 +1146,7 @@
     <t>Immunization.reaction.detail</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Observation]]}
+    <t xml:space="preserve">Reference(Observation)
 </t>
   </si>
   <si>
@@ -1231,8 +1231,8 @@
     <t>Immunization.protocolApplied.doseNumber[x]</t>
   </si>
   <si>
-    <t>positiveInt {[]} {[]}
-string {[]} {[]}</t>
+    <t>positiveInt
+string</t>
   </si>
   <si>
     <t>Dose number within series</t>
@@ -1303,67 +1303,67 @@
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin"/>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin"/>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
   </borders>
